--- a/Weekly Progress Reports/AI Benchmarks.xlsx
+++ b/Weekly Progress Reports/AI Benchmarks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean Laptop\Documents\GitHub\Senior-Design-TPG-DOTA-2\Weekly Progress Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F2328-C53F-4D30-8021-45B052B3B8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t>Game 5</t>
+  </si>
+  <si>
+    <t>Game 6</t>
+  </si>
+  <si>
+    <t>Game 7</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Last Hits</t>
+  </si>
+  <si>
+    <t>Denies</t>
+  </si>
+  <si>
+    <t>Game Time</t>
+  </si>
+  <si>
+    <t>Win/Loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +377,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weekly Progress Reports/AI Benchmarks.xlsx
+++ b/Weekly Progress Reports/AI Benchmarks.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean Laptop\Documents\GitHub\Senior-Design-TPG-DOTA-2\Weekly Progress Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F2328-C53F-4D30-8021-45B052B3B8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A7D25-2537-448C-903A-B57C93219B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Game 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Game 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Game 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Game 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Game 5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,28 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
-    <t>Game 7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Deaths</t>
   </si>
@@ -61,6 +44,12 @@
   </si>
   <si>
     <t>Win/Loss</t>
+  </si>
+  <si>
+    <t>Net Worth</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -96,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -389,52 +379,321 @@
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CF9D7D-E4FF-4B2A-AB12-C736A73C720F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AFF959-7DB6-4524-BF8A-84D76D4D0818}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931BCE60-14BE-4E7F-898D-D42075EEEE7B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB2ABFF-A2CB-4D47-A3D1-B4CAF671011B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Progress Reports/AI Benchmarks.xlsx
+++ b/Weekly Progress Reports/AI Benchmarks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean Laptop\Documents\GitHub\Senior-Design-TPG-DOTA-2\Weekly Progress Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcpxc\Desktop\SeniorDesign\Senior-Design-TPG-DOTA-2\Weekly Progress Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F2328-C53F-4D30-8021-45B052B3B8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BB387-C44F-4DE3-8C76-2866B5696BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="3525" windowWidth="21600" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Game 1</t>
   </si>
@@ -61,6 +61,33 @@
   </si>
   <si>
     <t>Win/Loss</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>Game 8</t>
+  </si>
+  <si>
+    <t>Game 9</t>
+  </si>
+  <si>
+    <t>Game 10</t>
+  </si>
+  <si>
+    <t>Game 11</t>
+  </si>
+  <si>
+    <t>Game 13</t>
+  </si>
+  <si>
+    <t>Game 12</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>Win</t>
   </si>
 </sst>
 </file>
@@ -378,18 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -411,30 +438,219 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="B6">
+        <v>421.73700000000002</v>
+      </c>
+      <c r="C6">
+        <v>422.67</v>
+      </c>
+      <c r="D6">
+        <v>423.33600000000001</v>
+      </c>
+      <c r="E6">
+        <v>424.73599999999999</v>
+      </c>
+      <c r="F6">
+        <v>425.70299999999997</v>
       </c>
     </row>
   </sheetData>
